--- a/data/scheduling_DNN/predict/0.9/result1.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result1.xlsx
@@ -570,10 +570,10 @@
         <v>1.469604969024658</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.3998002111911774</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8908295035362244</v>
+        <v>1.144482254981995</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9576139450073242</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.4008927941322327</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1409131735563278</v>
+        <v>0.3099384307861328</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9052128791809082</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.4016680419445038</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1082309186458588</v>
+        <v>0.2535573840141296</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9127449989318848</v>
       </c>
       <c r="V5" t="n">
-        <v>0.590633749961853</v>
+        <v>0.8796632885932922</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1037556603550911</v>
+        <v>0.001094399602152407</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8934659957885742</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.5071079134941101</v>
       </c>
       <c r="W6" t="n">
-        <v>0.007903056219220161</v>
+        <v>0.1492725610733032</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8803379535675049</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.4016670286655426</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1516916900873184</v>
+        <v>0.2291258573532104</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9409048557281494</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.5168719887733459</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2739109396934509</v>
+        <v>0.179803878068924</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8936929702758789</v>
       </c>
       <c r="V9" t="n">
-        <v>0.975181519985199</v>
+        <v>0.5230588912963867</v>
       </c>
       <c r="W9" t="n">
-        <v>0.006640383508056402</v>
+        <v>0.1373696178197861</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.881087064743042</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.5183974504470825</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1416703164577484</v>
+        <v>0.131543755531311</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8740129470825195</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.4015830457210541</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2776148617267609</v>
+        <v>0.2231900095939636</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.9498248100280762</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.5258314609527588</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0006718852091580629</v>
+        <v>0.179770365357399</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9320590496063232</v>
       </c>
       <c r="V13" t="n">
-        <v>0.801636278629303</v>
+        <v>0.5047183632850647</v>
       </c>
       <c r="W13" t="n">
-        <v>0.01701009832322598</v>
+        <v>0.1826200634241104</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9392838478088379</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.8747132420539856</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1318233460187912</v>
+        <v>0.004169363062828779</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9032180309295654</v>
       </c>
       <c r="V15" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.8821957111358643</v>
       </c>
       <c r="W15" t="n">
-        <v>0.004776674788445234</v>
+        <v>0.0004419379401952028</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.9470698833465576</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.5363937020301819</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1270321011543274</v>
+        <v>0.1686549186706543</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8911538124084473</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.4003452658653259</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1342237144708633</v>
+        <v>0.2408930361270905</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8763668537139893</v>
       </c>
       <c r="V18" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.8684383034706116</v>
       </c>
       <c r="W18" t="n">
-        <v>0.009942568838596344</v>
+        <v>6.286190910032019e-05</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8848881721496582</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.5167155861854553</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2183263897895813</v>
+        <v>0.1355510503053665</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9042701721191406</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.8717955946922302</v>
       </c>
       <c r="W20" t="n">
-        <v>0.06273569166660309</v>
+        <v>0.001054598134942353</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.9186079502105713</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.892331063747406</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1709811240434647</v>
+        <v>0.0006904747569933534</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5461130142211914</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.4000528454780579</v>
       </c>
       <c r="W22" t="n">
-        <v>0.005916251335293055</v>
+        <v>0.02133357338607311</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5479838848114014</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.5168688297271729</v>
       </c>
       <c r="W23" t="n">
-        <v>0.02287663519382477</v>
+        <v>0.0009681466617621481</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5971319675445557</v>
       </c>
       <c r="V24" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.873587429523468</v>
       </c>
       <c r="W24" t="n">
-        <v>0.04118132591247559</v>
+        <v>0.07642762362957001</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5396850109100342</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.5230622291564941</v>
       </c>
       <c r="W25" t="n">
-        <v>0.001255011418834329</v>
+        <v>0.0002763168595265597</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5460989475250244</v>
       </c>
       <c r="V26" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.399064838886261</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0009061707532964647</v>
+        <v>0.0216190293431282</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5273451805114746</v>
       </c>
       <c r="V27" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.5101131200790405</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01599563285708427</v>
+        <v>0.0002969439083244652</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5345249176025391</v>
       </c>
       <c r="V28" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.8754808306694031</v>
       </c>
       <c r="W28" t="n">
-        <v>0.02649961411952972</v>
+        <v>0.1162509322166443</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5431008338928223</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.516671359539032</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0002991583605762571</v>
+        <v>0.0006985171348787844</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5520429611206055</v>
       </c>
       <c r="V30" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.4000655114650726</v>
       </c>
       <c r="W30" t="n">
-        <v>0.04007573053240776</v>
+        <v>0.02309714443981647</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5254662036895752</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.8686921000480652</v>
       </c>
       <c r="W31" t="n">
-        <v>0.000436680915299803</v>
+        <v>0.1178040131926537</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5756039619445801</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.8697836399078369</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0003644575772341341</v>
+        <v>0.08654168248176575</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5258669853210449</v>
       </c>
       <c r="V33" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.4984012544155121</v>
       </c>
       <c r="W33" t="n">
-        <v>0.002537572989240289</v>
+        <v>0.0007543663959950209</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5430159568786621</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.4000520706176758</v>
       </c>
       <c r="W34" t="n">
-        <v>0.001437768107280135</v>
+        <v>0.0204386729747057</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5377190113067627</v>
       </c>
       <c r="V35" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.8738827705383301</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1916768699884415</v>
+        <v>0.1130060702562332</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5283079147338867</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.4008959233760834</v>
       </c>
       <c r="W36" t="n">
-        <v>1.518298086011782e-05</v>
+        <v>0.01623381488025188</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5266439914703369</v>
       </c>
       <c r="V37" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.5312895178794861</v>
       </c>
       <c r="W37" t="n">
-        <v>0.09640923142433167</v>
+        <v>2.158091592718847e-05</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5255799293518066</v>
       </c>
       <c r="V38" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.8728365302085876</v>
       </c>
       <c r="W38" t="n">
-        <v>0.2024909257888794</v>
+        <v>0.1205871477723122</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5257630348205566</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.5303513407707214</v>
       </c>
       <c r="W39" t="n">
-        <v>0.001251223962754011</v>
+        <v>2.10525522561511e-05</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5748438835144043</v>
       </c>
       <c r="V40" t="n">
-        <v>0.97564297914505</v>
+        <v>0.8747877478599548</v>
       </c>
       <c r="W40" t="n">
-        <v>0.1606399118900299</v>
+        <v>0.08996631950139999</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5403299331665039</v>
       </c>
       <c r="V41" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.866959273815155</v>
       </c>
       <c r="W41" t="n">
-        <v>0.06892915070056915</v>
+        <v>0.1066867262125015</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4217770099639893</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.8783482909202576</v>
       </c>
       <c r="W42" t="n">
-        <v>0.0542486384510994</v>
+        <v>0.2084573358297348</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4192249774932861</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.5226622819900513</v>
       </c>
       <c r="W43" t="n">
-        <v>0.05459553748369217</v>
+        <v>0.01069927588105202</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3973371982574463</v>
       </c>
       <c r="V44" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.530431866645813</v>
       </c>
       <c r="W44" t="n">
-        <v>0.3343808352947235</v>
+        <v>0.01771419122815132</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.396845817565918</v>
       </c>
       <c r="V45" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.4009086191654205</v>
       </c>
       <c r="W45" t="n">
-        <v>0.09143219888210297</v>
+        <v>1.650635749683715e-05</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3973300457000732</v>
       </c>
       <c r="V46" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.5266150236129761</v>
       </c>
       <c r="W46" t="n">
-        <v>0.06603764742612839</v>
+        <v>0.01671460643410683</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.40260910987854</v>
       </c>
       <c r="V47" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.4005929231643677</v>
       </c>
       <c r="W47" t="n">
-        <v>0.06301670521497726</v>
+        <v>4.065008852194296e-06</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4107708930969238</v>
       </c>
       <c r="V48" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.3998037278652191</v>
       </c>
       <c r="W48" t="n">
-        <v>0.0004498760972637683</v>
+        <v>0.0001202787098009139</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3985190391540527</v>
       </c>
       <c r="V49" t="n">
-        <v>0.975210964679718</v>
+        <v>0.516715407371521</v>
       </c>
       <c r="W49" t="n">
-        <v>0.3325735628604889</v>
+        <v>0.01397038158029318</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3982610702514648</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.5165973901748657</v>
       </c>
       <c r="W50" t="n">
-        <v>0.008481042459607124</v>
+        <v>0.01400348450988531</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3960020542144775</v>
       </c>
       <c r="V51" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.4006989300251007</v>
       </c>
       <c r="W51" t="n">
-        <v>0.0005713440477848053</v>
+        <v>2.206064164056443e-05</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3978888988494873</v>
       </c>
       <c r="V52" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.5298470854759216</v>
       </c>
       <c r="W52" t="n">
-        <v>0.06554935872554779</v>
+        <v>0.01741296239197254</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3950610160827637</v>
       </c>
       <c r="V53" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.4000494480133057</v>
       </c>
       <c r="W53" t="n">
-        <v>0.00024299458891619</v>
+        <v>2.488445352355484e-05</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3979020118713379</v>
       </c>
       <c r="V54" t="n">
-        <v>0.372467577457428</v>
+        <v>0.5454201698303223</v>
       </c>
       <c r="W54" t="n">
-        <v>0.0006469104555435479</v>
+        <v>0.02176160737872124</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3981389999389648</v>
       </c>
       <c r="V55" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.4006288945674896</v>
       </c>
       <c r="W55" t="n">
-        <v>0.002242346061393619</v>
+        <v>6.199575182108674e-06</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3943989276885986</v>
       </c>
       <c r="V56" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.5306866765022278</v>
       </c>
       <c r="W56" t="n">
-        <v>0.001905189943499863</v>
+        <v>0.01857434958219528</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3950021266937256</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.8770247101783752</v>
       </c>
       <c r="W57" t="n">
-        <v>0.009104157797992229</v>
+        <v>0.232345774769783</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.4145150184631348</v>
       </c>
       <c r="V58" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.5215541124343872</v>
       </c>
       <c r="W58" t="n">
-        <v>0.000661355908960104</v>
+        <v>0.01145736780017614</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3956568241119385</v>
       </c>
       <c r="V59" t="n">
-        <v>0.802417516708374</v>
+        <v>0.4003795385360718</v>
       </c>
       <c r="W59" t="n">
-        <v>0.1654542684555054</v>
+        <v>2.230403151770588e-05</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.4056699275970459</v>
       </c>
       <c r="V60" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.872612476348877</v>
       </c>
       <c r="W60" t="n">
-        <v>0.1797593384981155</v>
+        <v>0.2180353403091431</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.4059398174285889</v>
       </c>
       <c r="V61" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.5134323239326477</v>
       </c>
       <c r="W61" t="n">
-        <v>0.007197137922048569</v>
+        <v>0.01155463885515928</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>1.02625584602356</v>
       </c>
       <c r="V62" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.4016273319721222</v>
       </c>
       <c r="W62" t="n">
-        <v>0.05096676200628281</v>
+        <v>0.3901608288288116</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.9517920017242432</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.4000451266765594</v>
       </c>
       <c r="W63" t="n">
-        <v>0.2127980291843414</v>
+        <v>0.3044245839118958</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.9051640033721924</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.8698551058769226</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2376846820116043</v>
+        <v>0.001246718224138021</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>1.003021001815796</v>
       </c>
       <c r="V65" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.8702399134635925</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1222473904490471</v>
+        <v>0.01763081736862659</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.9027309417724609</v>
       </c>
       <c r="V66" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.4009122550487518</v>
       </c>
       <c r="W66" t="n">
-        <v>0.2816724479198456</v>
+        <v>0.2518219649791718</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8939568996429443</v>
       </c>
       <c r="V67" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.8717167377471924</v>
       </c>
       <c r="W67" t="n">
-        <v>0.03624194860458374</v>
+        <v>0.0004946247790940106</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8873119354248047</v>
       </c>
       <c r="V68" t="n">
-        <v>0.802345335483551</v>
+        <v>0.5169020295143127</v>
       </c>
       <c r="W68" t="n">
-        <v>0.007219322957098484</v>
+        <v>0.1372034996747971</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8788712024688721</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.399076908826828</v>
       </c>
       <c r="W69" t="n">
-        <v>0.09164413064718246</v>
+        <v>0.2302025705575943</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8773040771484375</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.8643814921379089</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1385391056537628</v>
+        <v>0.0001669932098593563</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8974218368530273</v>
       </c>
       <c r="V71" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.8974660634994507</v>
       </c>
       <c r="W71" t="n">
-        <v>0.04190821200609207</v>
+        <v>1.955996253855119e-09</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8843009471893311</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.8744663000106812</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1790910661220551</v>
+        <v>9.67202868196182e-05</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8786149024963379</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.5220524072647095</v>
       </c>
       <c r="W73" t="n">
-        <v>0.2124967277050018</v>
+        <v>0.1271368116140366</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.9318070411682129</v>
       </c>
       <c r="V74" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.5163151025772095</v>
       </c>
       <c r="W74" t="n">
-        <v>0.3376190066337585</v>
+        <v>0.1726335436105728</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8818371295928955</v>
       </c>
       <c r="V75" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.4000419676303864</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1274934262037277</v>
+        <v>0.2321265786886215</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8789389133453369</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.4015875160694122</v>
       </c>
       <c r="W76" t="n">
-        <v>0.2128046602010727</v>
+        <v>0.2278643548488617</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.9003469944000244</v>
       </c>
       <c r="V77" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.3998036086559296</v>
       </c>
       <c r="W77" t="n">
-        <v>0.06075241416692734</v>
+        <v>0.2505436539649963</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.9369490146636963</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.8796082139015198</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1302691996097565</v>
+        <v>0.003287967527285218</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8839180469512939</v>
       </c>
       <c r="V79" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.4016764760017395</v>
       </c>
       <c r="W79" t="n">
-        <v>0.08461954444646835</v>
+        <v>0.232556939125061</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8740348815917969</v>
       </c>
       <c r="V80" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.8759242296218872</v>
       </c>
       <c r="W80" t="n">
-        <v>0.0849824845790863</v>
+        <v>3.569635964595363e-06</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.878889799118042</v>
       </c>
       <c r="V81" t="n">
-        <v>0.417630136013031</v>
+        <v>0.4009163379669189</v>
       </c>
       <c r="W81" t="n">
-        <v>0.2127604782581329</v>
+        <v>0.2284586280584335</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.6107220649719238</v>
       </c>
       <c r="V82" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.8868524432182312</v>
       </c>
       <c r="W82" t="n">
-        <v>0.06758353859186172</v>
+        <v>0.07624798268079758</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5351009368896484</v>
       </c>
       <c r="V83" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.5179470181465149</v>
       </c>
       <c r="W83" t="n">
-        <v>0.03398824483156204</v>
+        <v>0.0002942569262813777</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5319771766662598</v>
       </c>
       <c r="V84" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.5326162576675415</v>
       </c>
       <c r="W84" t="n">
-        <v>0.01467338390648365</v>
+        <v>4.084245119884145e-07</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5300149917602539</v>
       </c>
       <c r="V85" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.5221683382987976</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0006866397452540696</v>
+        <v>6.156996823847294e-05</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5222859382629395</v>
       </c>
       <c r="V86" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.8717962503433228</v>
       </c>
       <c r="W86" t="n">
-        <v>0.03130703419446945</v>
+        <v>0.1221574619412422</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5271379947662354</v>
       </c>
       <c r="V87" t="n">
-        <v>0.654336154460907</v>
+        <v>0.5091581344604492</v>
       </c>
       <c r="W87" t="n">
-        <v>0.01617937162518501</v>
+        <v>0.0003232753660995513</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5315499305725098</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.516294538974762</v>
       </c>
       <c r="W88" t="n">
-        <v>0.001942611997947097</v>
+        <v>0.0002327269758097827</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5334780216217041</v>
       </c>
       <c r="V89" t="n">
-        <v>0.490907609462738</v>
+        <v>0.5288423299789429</v>
       </c>
       <c r="W89" t="n">
-        <v>0.001812239992432296</v>
+        <v>2.148963721992914e-05</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5340180397033691</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.8760904669761658</v>
       </c>
       <c r="W90" t="n">
-        <v>0.005264375824481249</v>
+        <v>0.117013543844223</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.531419038772583</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.8763277530670166</v>
       </c>
       <c r="W91" t="n">
-        <v>0.0006969301030039787</v>
+        <v>0.1189620196819305</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5320870876312256</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.5231199264526367</v>
       </c>
       <c r="W92" t="n">
-        <v>0.00470660999417305</v>
+        <v>8.040997636271641e-05</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.535567045211792</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.3992438614368439</v>
       </c>
       <c r="W93" t="n">
-        <v>0.01390207186341286</v>
+        <v>0.01858401112258434</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5251190662384033</v>
       </c>
       <c r="V94" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.5170053243637085</v>
       </c>
       <c r="W94" t="n">
-        <v>0.01646205596625805</v>
+        <v>6.583280628547072e-05</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5292398929595947</v>
       </c>
       <c r="V95" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.4006218612194061</v>
       </c>
       <c r="W95" t="n">
-        <v>2.17062533920398e-05</v>
+        <v>0.01654259860515594</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5305531024932861</v>
       </c>
       <c r="V96" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.4018118381500244</v>
       </c>
       <c r="W96" t="n">
-        <v>0.001595401205122471</v>
+        <v>0.0165743138641119</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5304639339447021</v>
       </c>
       <c r="V97" t="n">
-        <v>0.417652815580368</v>
+        <v>0.3990808427333832</v>
       </c>
       <c r="W97" t="n">
-        <v>0.01272634882479906</v>
+        <v>0.01726151630282402</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5783541202545166</v>
       </c>
       <c r="V98" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.8894727826118469</v>
       </c>
       <c r="W98" t="n">
-        <v>0.005504123866558075</v>
+        <v>0.09679482132196426</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5288350582122803</v>
       </c>
       <c r="V99" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.8582085371017456</v>
       </c>
       <c r="W99" t="n">
-        <v>0.01236739661544561</v>
+        <v>0.1084868907928467</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5300018787384033</v>
       </c>
       <c r="V100" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.8724211454391479</v>
       </c>
       <c r="W100" t="n">
-        <v>0.01262793783098459</v>
+        <v>0.117250956594944</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5334467887878418</v>
       </c>
       <c r="V101" t="n">
-        <v>0.405481219291687</v>
+        <v>0.3990534842014313</v>
       </c>
       <c r="W101" t="n">
-        <v>0.01637518778443336</v>
+        <v>0.0180615596473217</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4135949611663818</v>
       </c>
       <c r="V102" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.5216180086135864</v>
       </c>
       <c r="W102" t="n">
-        <v>0.002259579254314303</v>
+        <v>0.01166897919028997</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4203581809997559</v>
       </c>
       <c r="V103" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.8690023422241211</v>
       </c>
       <c r="W103" t="n">
-        <v>0.001892263535410166</v>
+        <v>0.2012815773487091</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4076690673828125</v>
       </c>
       <c r="V104" t="n">
-        <v>0.490370512008667</v>
+        <v>0.8815296292304993</v>
       </c>
       <c r="W104" t="n">
-        <v>0.006839529145509005</v>
+        <v>0.2245438247919083</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4117300510406494</v>
       </c>
       <c r="V105" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.4006226360797882</v>
       </c>
       <c r="W105" t="n">
-        <v>0.006257330533117056</v>
+        <v>0.0001233746734214947</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3982830047607422</v>
       </c>
       <c r="V106" t="n">
-        <v>0.35074183344841</v>
+        <v>0.8866764903068542</v>
       </c>
       <c r="W106" t="n">
-        <v>0.002260162960737944</v>
+        <v>0.2385281920433044</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3995699882507324</v>
       </c>
       <c r="V107" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.8748836517333984</v>
       </c>
       <c r="W107" t="n">
-        <v>0.00229331012815237</v>
+        <v>0.2259230762720108</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3960738182067871</v>
       </c>
       <c r="V108" t="n">
-        <v>0.653493344783783</v>
+        <v>0.873627245426178</v>
       </c>
       <c r="W108" t="n">
-        <v>0.06626481562852859</v>
+        <v>0.2280572801828384</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.4147820472717285</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.4006105363368988</v>
       </c>
       <c r="W109" t="n">
-        <v>0.002185153774917126</v>
+        <v>0.0002008317242143676</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3983039855957031</v>
       </c>
       <c r="V110" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.5199874639511108</v>
       </c>
       <c r="W110" t="n">
-        <v>0.01128372829407454</v>
+        <v>0.01480686850845814</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.4013969898223877</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.8695171475410461</v>
       </c>
       <c r="W111" t="n">
-        <v>0.03589630499482155</v>
+        <v>0.2191364765167236</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4056260585784912</v>
       </c>
       <c r="V112" t="n">
-        <v>0.524641752243042</v>
+        <v>0.8855537176132202</v>
       </c>
       <c r="W112" t="n">
-        <v>0.01416473556309938</v>
+        <v>0.2303305566310883</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3991959095001221</v>
       </c>
       <c r="V113" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.5299387574195862</v>
       </c>
       <c r="W113" t="n">
-        <v>0.002344491891562939</v>
+        <v>0.01709369197487831</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.401115894317627</v>
       </c>
       <c r="V114" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.8681447505950928</v>
       </c>
       <c r="W114" t="n">
-        <v>0.0002688635431695729</v>
+        <v>0.2181159555912018</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3997581005096436</v>
       </c>
       <c r="V115" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.5256459712982178</v>
       </c>
       <c r="W115" t="n">
-        <v>0.0004485307144932449</v>
+        <v>0.01584775559604168</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.4026870727539062</v>
       </c>
       <c r="V116" t="n">
-        <v>0.838257908821106</v>
+        <v>0.4009046852588654</v>
       </c>
       <c r="W116" t="n">
-        <v>0.1897219568490982</v>
+        <v>3.176905238433392e-06</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.4104290008544922</v>
       </c>
       <c r="V117" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.8662463426589966</v>
       </c>
       <c r="W117" t="n">
-        <v>0.001533268601633608</v>
+        <v>0.2077694535255432</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4057800769805908</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.5317755341529846</v>
       </c>
       <c r="W118" t="n">
-        <v>0.0001403617497999221</v>
+        <v>0.01587485522031784</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3966670036315918</v>
       </c>
       <c r="V119" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.5238829255104065</v>
       </c>
       <c r="W119" t="n">
-        <v>0.0004357746220193803</v>
+        <v>0.01618389040231705</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4050350189208984</v>
       </c>
       <c r="V120" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.8704136610031128</v>
       </c>
       <c r="W120" t="n">
-        <v>0.08654560893774033</v>
+        <v>0.2165772765874863</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.4038529396057129</v>
       </c>
       <c r="V121" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.8711190223693848</v>
       </c>
       <c r="W121" t="n">
-        <v>0.1573031097650528</v>
+        <v>0.2183375954627991</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8896141052246094</v>
       </c>
       <c r="V122" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.526378333568573</v>
       </c>
       <c r="W122" t="n">
-        <v>0.2618818879127502</v>
+        <v>0.1319402307271957</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.906566858291626</v>
       </c>
       <c r="V123" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.4018277227878571</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1613374352455139</v>
+        <v>0.2547616362571716</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8737847805023193</v>
       </c>
       <c r="V124" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.8608108162879944</v>
       </c>
       <c r="W124" t="n">
-        <v>0.2081491947174072</v>
+        <v>0.0001683237496763468</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.9282269477844238</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.8657016158103943</v>
       </c>
       <c r="W125" t="n">
-        <v>0.07502540946006775</v>
+        <v>0.00390941696241498</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8831160068511963</v>
       </c>
       <c r="V126" t="n">
-        <v>0.708076536655426</v>
+        <v>0.5259096622467041</v>
       </c>
       <c r="W126" t="n">
-        <v>0.03063881583511829</v>
+        <v>0.127596378326416</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.9013409614562988</v>
       </c>
       <c r="V127" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.4003704488277435</v>
       </c>
       <c r="W127" t="n">
-        <v>0.3031488656997681</v>
+        <v>0.2509714365005493</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8755838871002197</v>
       </c>
       <c r="V128" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.8722756505012512</v>
       </c>
       <c r="W128" t="n">
-        <v>0.2472435086965561</v>
+        <v>1.094442905014148e-05</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.9365639686584473</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.3990815579891205</v>
       </c>
       <c r="W129" t="n">
-        <v>0.2693580985069275</v>
+        <v>0.2888873219490051</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9395790100097656</v>
       </c>
       <c r="V130" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.5184797644615173</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1319785118103027</v>
+        <v>0.177324578166008</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8820738792419434</v>
       </c>
       <c r="V131" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.5183305740356445</v>
       </c>
       <c r="W131" t="n">
-        <v>0.2822866141796112</v>
+        <v>0.1323091983795166</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8853549957275391</v>
       </c>
       <c r="V132" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.8708747029304504</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1796377301216125</v>
+        <v>0.0002096788812195882</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9771230220794678</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.4008786380290985</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1556471884250641</v>
+        <v>0.3320575654506683</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.9092328548431396</v>
       </c>
       <c r="V134" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.4006365239620209</v>
       </c>
       <c r="W134" t="n">
-        <v>0.2812471985816956</v>
+        <v>0.2586702108383179</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8951380252838135</v>
       </c>
       <c r="V135" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.8738409280776978</v>
       </c>
       <c r="W135" t="n">
-        <v>0.03837466984987259</v>
+        <v>0.0004535663465503603</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8852920532226562</v>
       </c>
       <c r="V136" t="n">
-        <v>0.652911365032196</v>
+        <v>0.8674952983856201</v>
       </c>
       <c r="W136" t="n">
-        <v>0.05400078371167183</v>
+        <v>0.0003167244722135365</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.9334981441497803</v>
       </c>
       <c r="V137" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.4008753001689911</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2205895781517029</v>
+        <v>0.2836870551109314</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8817300796508789</v>
       </c>
       <c r="V138" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.8923859596252441</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1749235093593597</v>
+        <v>0.0001135477796196938</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.877946138381958</v>
       </c>
       <c r="V139" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.5332267284393311</v>
       </c>
       <c r="W139" t="n">
-        <v>0.006007217802107334</v>
+        <v>0.1188314706087112</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8788509368896484</v>
       </c>
       <c r="V140" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.5301931500434875</v>
       </c>
       <c r="W140" t="n">
-        <v>0.005969598423689604</v>
+        <v>0.1215622499585152</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8856711387634277</v>
       </c>
       <c r="V141" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.3990895450115204</v>
       </c>
       <c r="W141" t="n">
-        <v>0.130443811416626</v>
+        <v>0.2367616444826126</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.539654016494751</v>
       </c>
       <c r="V142" t="n">
-        <v>0.653571605682373</v>
+        <v>0.3992483615875244</v>
       </c>
       <c r="W142" t="n">
-        <v>0.01297721732407808</v>
+        <v>0.01971374824643135</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5301709175109863</v>
       </c>
       <c r="V143" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.5242624282836914</v>
       </c>
       <c r="W143" t="n">
-        <v>0.03179848566651344</v>
+        <v>3.491024472168647e-05</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.533066987991333</v>
       </c>
       <c r="V144" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.3990826010704041</v>
       </c>
       <c r="W144" t="n">
-        <v>0.09039529412984848</v>
+        <v>0.01795181632041931</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5278267860412598</v>
       </c>
       <c r="V145" t="n">
-        <v>0.503772497177124</v>
+        <v>0.8673574924468994</v>
       </c>
       <c r="W145" t="n">
-        <v>0.0005786088295280933</v>
+        <v>0.1152810975909233</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.530515193939209</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.5316290855407715</v>
       </c>
       <c r="W146" t="n">
-        <v>0.00266818911768496</v>
+        <v>1.240754500031471e-06</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5385630130767822</v>
       </c>
       <c r="V147" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.8841854929924011</v>
       </c>
       <c r="W147" t="n">
-        <v>0.01461622025817633</v>
+        <v>0.1194548979401588</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5337851047515869</v>
       </c>
       <c r="V148" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.5255206227302551</v>
       </c>
       <c r="W148" t="n">
-        <v>0.01433741301298141</v>
+        <v>6.83016623952426e-05</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5306360721588135</v>
       </c>
       <c r="V149" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.5254954695701599</v>
       </c>
       <c r="W149" t="n">
-        <v>0.09208045154809952</v>
+        <v>2.642579420353286e-05</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.529973030090332</v>
       </c>
       <c r="V150" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.5165366530418396</v>
       </c>
       <c r="W150" t="n">
-        <v>0.0006592269637621939</v>
+        <v>0.0001805362262530252</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.55051589012146</v>
       </c>
       <c r="V151" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.8756760954856873</v>
       </c>
       <c r="W151" t="n">
-        <v>0.02963962033390999</v>
+        <v>0.1057291626930237</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5510158538818359</v>
       </c>
       <c r="V152" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.8649038672447205</v>
       </c>
       <c r="W152" t="n">
-        <v>0.01051460206508636</v>
+        <v>0.09852568805217743</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5294108390808105</v>
       </c>
       <c r="V153" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.8761387467384338</v>
       </c>
       <c r="W153" t="n">
-        <v>0.02460836805403233</v>
+        <v>0.1202202439308167</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5271210670471191</v>
       </c>
       <c r="V154" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.8812136054039001</v>
       </c>
       <c r="W154" t="n">
-        <v>0.02402167394757271</v>
+        <v>0.1253815293312073</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5299139022827148</v>
       </c>
       <c r="V155" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.4000528752803802</v>
       </c>
       <c r="W155" t="n">
-        <v>0.0006244773976504803</v>
+        <v>0.01686388626694679</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.583341121673584</v>
       </c>
       <c r="V156" t="n">
-        <v>0.800457239151001</v>
+        <v>0.8672260046005249</v>
       </c>
       <c r="W156" t="n">
-        <v>0.04713940992951393</v>
+        <v>0.0805906280875206</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.532667875289917</v>
       </c>
       <c r="V157" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.8689676523208618</v>
       </c>
       <c r="W157" t="n">
-        <v>0.0328238271176815</v>
+        <v>0.1130975410342216</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5350229740142822</v>
       </c>
       <c r="V158" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.4003593921661377</v>
       </c>
       <c r="W158" t="n">
-        <v>0.005069408100098372</v>
+        <v>0.01813428103923798</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5340468883514404</v>
       </c>
       <c r="V159" t="n">
-        <v>0.490833193063736</v>
+        <v>0.5303994417190552</v>
       </c>
       <c r="W159" t="n">
-        <v>0.001867423416115344</v>
+        <v>1.330386658082716e-05</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5316998958587646</v>
       </c>
       <c r="V160" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.523918628692627</v>
       </c>
       <c r="W160" t="n">
-        <v>0.03110888786613941</v>
+        <v>6.054811819922179e-05</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5935299396514893</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.3990591168403625</v>
       </c>
       <c r="W161" t="n">
-        <v>0.01055538933724165</v>
+        <v>0.03781890124082565</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.4093868732452393</v>
       </c>
       <c r="V162" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.8706465363502502</v>
       </c>
       <c r="W162" t="n">
-        <v>0.00343830743804574</v>
+        <v>0.2127604782581329</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.4065051078796387</v>
       </c>
       <c r="V163" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.4000276625156403</v>
       </c>
       <c r="W163" t="n">
-        <v>0.06092727929353714</v>
+        <v>4.195729707134888e-05</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3991808891296387</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.400890976190567</v>
       </c>
       <c r="W164" t="n">
-        <v>0.0003411911602597684</v>
+        <v>2.924397676906665e-06</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.4052278995513916</v>
       </c>
       <c r="V165" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.5357527136802673</v>
       </c>
       <c r="W165" t="n">
-        <v>0.0001548751315567642</v>
+        <v>0.01703672669827938</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.4011631011962891</v>
       </c>
       <c r="V166" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.5310002565383911</v>
       </c>
       <c r="W166" t="n">
-        <v>0.01523364428430796</v>
+        <v>0.01685768738389015</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.4490811824798584</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.4008803069591522</v>
       </c>
       <c r="W167" t="n">
-        <v>0.04067465662956238</v>
+        <v>0.002323324326425791</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.4015998840332031</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.4006545841693878</v>
       </c>
       <c r="W168" t="n">
-        <v>0.003868670668452978</v>
+        <v>8.935918458519154e-07</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.4047849178314209</v>
       </c>
       <c r="V169" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.5666577816009521</v>
       </c>
       <c r="W169" t="n">
-        <v>0.09201119095087051</v>
+        <v>0.02620282396674156</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.4026010036468506</v>
       </c>
       <c r="V170" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.3990847766399384</v>
       </c>
       <c r="W170" t="n">
-        <v>0.002688603941351175</v>
+        <v>1.236385196534684e-05</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.401104211807251</v>
       </c>
       <c r="V171" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.3999596834182739</v>
       </c>
       <c r="W171" t="n">
-        <v>0.1914389580488205</v>
+        <v>1.309945218963549e-06</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4033920764923096</v>
       </c>
       <c r="V172" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.5266708731651306</v>
       </c>
       <c r="W172" t="n">
-        <v>0.3275754749774933</v>
+        <v>0.01519766170531511</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.4314339160919189</v>
       </c>
       <c r="V173" t="n">
-        <v>0.655465304851532</v>
+        <v>0.5310952067375183</v>
       </c>
       <c r="W173" t="n">
-        <v>0.05019006133079529</v>
+        <v>0.009932372719049454</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4098010063171387</v>
       </c>
       <c r="V174" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.5202973484992981</v>
       </c>
       <c r="W174" t="n">
-        <v>0.0009889996144920588</v>
+        <v>0.0122094415128231</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.4046478271484375</v>
       </c>
       <c r="V175" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.5044217109680176</v>
       </c>
       <c r="W175" t="n">
-        <v>0.09204883873462677</v>
+        <v>0.009954827837646008</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.4040770530700684</v>
       </c>
       <c r="V176" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.5304430723190308</v>
       </c>
       <c r="W176" t="n">
-        <v>0.003253620117902756</v>
+        <v>0.01596837118268013</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4129810333251953</v>
       </c>
       <c r="V177" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.4000576138496399</v>
       </c>
       <c r="W177" t="n">
-        <v>0.05846663936972618</v>
+        <v>0.0001670147757977247</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4443020820617676</v>
       </c>
       <c r="V178" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.5252822637557983</v>
       </c>
       <c r="W178" t="n">
-        <v>0.05856840685009956</v>
+        <v>0.006557789631187916</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.4889922142028809</v>
       </c>
       <c r="V179" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.4000429213047028</v>
       </c>
       <c r="W179" t="n">
-        <v>0.001386060728691518</v>
+        <v>0.007911976426839828</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4019980430603027</v>
       </c>
       <c r="V180" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.3990675806999207</v>
       </c>
       <c r="W180" t="n">
-        <v>0.1867863982915878</v>
+        <v>8.587609954702202e-06</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4092979431152344</v>
       </c>
       <c r="V181" t="n">
-        <v>0.505433976650238</v>
+        <v>0.5168296694755554</v>
       </c>
       <c r="W181" t="n">
-        <v>0.009242136962711811</v>
+        <v>0.01156307198107243</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.891876220703125</v>
       </c>
       <c r="V182" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.8667697906494141</v>
       </c>
       <c r="W182" t="n">
-        <v>0.09289328753948212</v>
+        <v>0.0006303328555077314</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8808250427246094</v>
       </c>
       <c r="V183" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.4008764326572418</v>
       </c>
       <c r="W183" t="n">
-        <v>0.002195097971707582</v>
+        <v>0.2303506731987</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.913067102432251</v>
       </c>
       <c r="V184" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.5302550196647644</v>
       </c>
       <c r="W184" t="n">
-        <v>0.01250061579048634</v>
+        <v>0.1465450972318649</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8929059505462646</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.8853140473365784</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1861436814069748</v>
+        <v>5.763699300587177e-05</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.9277229309082031</v>
       </c>
       <c r="V186" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.4001927077770233</v>
       </c>
       <c r="W186" t="n">
-        <v>0.002255373867228627</v>
+        <v>0.2782880961894989</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.9063000679016113</v>
       </c>
       <c r="V187" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.8723305463790894</v>
       </c>
       <c r="W187" t="n">
-        <v>0.04562612250447273</v>
+        <v>0.001153928344137967</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8852560520172119</v>
       </c>
       <c r="V188" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.5278075337409973</v>
       </c>
       <c r="W188" t="n">
-        <v>0.1556666642427444</v>
+        <v>0.1277694404125214</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8886961936950684</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.3990629017353058</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1317901462316513</v>
+        <v>0.2397407591342926</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8827528953552246</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.868674099445343</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1535107493400574</v>
+        <v>0.0001982124958885834</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.9401040077209473</v>
       </c>
       <c r="V191" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.8701654076576233</v>
       </c>
       <c r="W191" t="n">
-        <v>0.3228679597377777</v>
+        <v>0.004891407676041126</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8825490474700928</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.8694186806678772</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1543011665344238</v>
+        <v>0.000172406536876224</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8858850002288818</v>
       </c>
       <c r="V193" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.8790282011032104</v>
       </c>
       <c r="W193" t="n">
-        <v>0.05399776622653008</v>
+        <v>4.701569559983909e-05</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8831770420074463</v>
       </c>
       <c r="V194" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.4005902111530304</v>
       </c>
       <c r="W194" t="n">
-        <v>0.2613546550273895</v>
+        <v>0.2328900545835495</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.9418988227844238</v>
       </c>
       <c r="V195" t="n">
-        <v>0.490329772233963</v>
+        <v>0.8746913075447083</v>
       </c>
       <c r="W195" t="n">
-        <v>0.203914612531662</v>
+        <v>0.004516850225627422</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8837671279907227</v>
       </c>
       <c r="V196" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.3990655839443207</v>
       </c>
       <c r="W196" t="n">
-        <v>0.006681547965854406</v>
+        <v>0.2349355816841125</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8807148933410645</v>
       </c>
       <c r="V197" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.5329223871231079</v>
       </c>
       <c r="W197" t="n">
-        <v>0.009008343331515789</v>
+        <v>0.1209596246480942</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8814489841461182</v>
       </c>
       <c r="V198" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.872674822807312</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2151191830635071</v>
+        <v>7.698591070948169e-05</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.9411418437957764</v>
       </c>
       <c r="V199" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.5170300006866455</v>
       </c>
       <c r="W199" t="n">
-        <v>0.3485671281814575</v>
+        <v>0.1798708587884903</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8811769485473633</v>
       </c>
       <c r="V200" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.8876815438270569</v>
       </c>
       <c r="W200" t="n">
-        <v>0.03546975925564766</v>
+        <v>4.230975901009515e-05</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8956382274627686</v>
       </c>
       <c r="V201" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.8722347617149353</v>
       </c>
       <c r="W201" t="n">
-        <v>0.05887614563107491</v>
+        <v>0.000547722214832902</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5340750217437744</v>
       </c>
       <c r="V202" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.3992522656917572</v>
       </c>
       <c r="W202" t="n">
-        <v>0.0732034370303154</v>
+        <v>0.01817717589437962</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5280799865722656</v>
       </c>
       <c r="V203" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.8680585026741028</v>
       </c>
       <c r="W203" t="n">
-        <v>0.0752263218164444</v>
+        <v>0.1155853942036629</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.55855393409729</v>
       </c>
       <c r="V204" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.4007153809070587</v>
       </c>
       <c r="W204" t="n">
-        <v>0.1739079803228378</v>
+        <v>0.0249130092561245</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5331411361694336</v>
       </c>
       <c r="V205" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.3990711271762848</v>
       </c>
       <c r="W205" t="n">
-        <v>0.01445722114294767</v>
+        <v>0.01797476783394814</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5327358245849609</v>
       </c>
       <c r="V206" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.400879830121994</v>
       </c>
       <c r="W206" t="n">
-        <v>0.02580465376377106</v>
+        <v>0.01738600246608257</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5310330390930176</v>
       </c>
       <c r="V207" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.4016870558261871</v>
       </c>
       <c r="W207" t="n">
-        <v>0.07486389577388763</v>
+        <v>0.01673038303852081</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5280430316925049</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.4000549614429474</v>
       </c>
       <c r="W208" t="n">
-        <v>0.0122225247323513</v>
+        <v>0.01638094522058964</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5312619209289551</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.3999657928943634</v>
       </c>
       <c r="W209" t="n">
-        <v>0.004541102331131697</v>
+        <v>0.01723867282271385</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5441038608551025</v>
       </c>
       <c r="V210" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.5165630578994751</v>
       </c>
       <c r="W210" t="n">
-        <v>0.01599058322608471</v>
+        <v>0.000758495822083205</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5353600978851318</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.5287631750106812</v>
       </c>
       <c r="W211" t="n">
-        <v>0.0138602601364255</v>
+        <v>4.351939060143195e-05</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5355451107025146</v>
       </c>
       <c r="V212" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.8677402138710022</v>
       </c>
       <c r="W212" t="n">
-        <v>0.02474408596754074</v>
+        <v>0.1103535890579224</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.532059907913208</v>
       </c>
       <c r="V213" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.4019238650798798</v>
       </c>
       <c r="W213" t="n">
-        <v>0.001932416576892138</v>
+        <v>0.01693538948893547</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5883300304412842</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.5339513421058655</v>
       </c>
       <c r="W214" t="n">
-        <v>0.009541435167193413</v>
+        <v>0.002957041841000319</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5338649749755859</v>
       </c>
       <c r="V215" t="n">
-        <v>0.417632520198822</v>
+        <v>0.888770580291748</v>
       </c>
       <c r="W215" t="n">
-        <v>0.01350998319685459</v>
+        <v>0.1259579956531525</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5369060039520264</v>
       </c>
       <c r="V216" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.5655720233917236</v>
       </c>
       <c r="W216" t="n">
-        <v>0.0053409393876791</v>
+        <v>0.000821740657556802</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5312070846557617</v>
       </c>
       <c r="V217" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.5168012380599976</v>
       </c>
       <c r="W217" t="n">
-        <v>0.02537222765386105</v>
+        <v>0.0002075284137390554</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5312271118164062</v>
       </c>
       <c r="V218" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.3990675508975983</v>
       </c>
       <c r="W218" t="n">
-        <v>0.0007627698942087591</v>
+        <v>0.01746615022420883</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5899190902709961</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.8678569793701172</v>
       </c>
       <c r="W219" t="n">
-        <v>0.007425590418279171</v>
+        <v>0.07724946737289429</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5367641448974609</v>
       </c>
       <c r="V220" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.8666122555732727</v>
       </c>
       <c r="W220" t="n">
-        <v>0.01370340771973133</v>
+        <v>0.1087997779250145</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5353620052337646</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.8823501467704773</v>
       </c>
       <c r="W221" t="n">
-        <v>0.003275640774518251</v>
+        <v>0.1204007714986801</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3991918563842773</v>
       </c>
       <c r="V222" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.5201041698455811</v>
       </c>
       <c r="W222" t="n">
-        <v>0.01122141163796186</v>
+        <v>0.0146197872236371</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3988630771636963</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.5217720866203308</v>
       </c>
       <c r="W223" t="n">
-        <v>0.004176709800958633</v>
+        <v>0.01510662492364645</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.4080910682678223</v>
       </c>
       <c r="V224" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.4006092250347137</v>
       </c>
       <c r="W224" t="n">
-        <v>0.1557340174913406</v>
+        <v>5.597797644441016e-05</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.4009909629821777</v>
       </c>
       <c r="V225" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.4016683995723724</v>
       </c>
       <c r="W225" t="n">
-        <v>0.002911620074883103</v>
+        <v>4.589203399518738e-07</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.4052519798278809</v>
       </c>
       <c r="V226" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.5181320905685425</v>
       </c>
       <c r="W226" t="n">
-        <v>0.190271183848381</v>
+        <v>0.01274191960692406</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.4094200134277344</v>
       </c>
       <c r="V227" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.399959921836853</v>
       </c>
       <c r="W227" t="n">
-        <v>0.006543775554746389</v>
+        <v>8.949333277996629e-05</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4066460132598877</v>
       </c>
       <c r="V228" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.4001747369766235</v>
       </c>
       <c r="W228" t="n">
-        <v>0.003122698748484254</v>
+        <v>4.187741797068156e-05</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4332959651947021</v>
       </c>
       <c r="V229" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.4016112685203552</v>
       </c>
       <c r="W229" t="n">
-        <v>0.1379615068435669</v>
+        <v>0.001003919984214008</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.4015820026397705</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.8870602250099182</v>
       </c>
       <c r="W230" t="n">
-        <v>0.0151862446218729</v>
+        <v>0.235689103603363</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.4050970077514648</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.8760552406311035</v>
       </c>
       <c r="W231" t="n">
-        <v>0.03311922028660774</v>
+        <v>0.2218016535043716</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4173200130462646</v>
       </c>
       <c r="V232" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.4006519019603729</v>
       </c>
       <c r="W232" t="n">
-        <v>0.002052889904007316</v>
+        <v>0.0002778259222395718</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4144260883331299</v>
       </c>
       <c r="V233" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.8760782480239868</v>
       </c>
       <c r="W233" t="n">
-        <v>0.1795734912157059</v>
+        <v>0.2131227105855942</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.4076559543609619</v>
       </c>
       <c r="V234" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.8868755698204041</v>
       </c>
       <c r="W234" t="n">
-        <v>0.006729874294251204</v>
+        <v>0.2296514362096786</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4050118923187256</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.5667390823364258</v>
       </c>
       <c r="W235" t="n">
-        <v>0.01434800587594509</v>
+        <v>0.02615568414330482</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4071331024169922</v>
       </c>
       <c r="V236" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.5165446996688843</v>
       </c>
       <c r="W236" t="n">
-        <v>0.003177945502102375</v>
+        <v>0.01197089720517397</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4058289527893066</v>
       </c>
       <c r="V237" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.8704115748405457</v>
       </c>
       <c r="W237" t="n">
-        <v>0.00310047878883779</v>
+        <v>0.2158370167016983</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.4014730453491211</v>
       </c>
       <c r="V238" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.8675589561462402</v>
       </c>
       <c r="W238" t="n">
-        <v>0.002495604334399104</v>
+        <v>0.2172360718250275</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.4043900966644287</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.8689510226249695</v>
       </c>
       <c r="W239" t="n">
-        <v>0.007453558035194874</v>
+        <v>0.215816855430603</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3961811065673828</v>
       </c>
       <c r="V240" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.8734613060951233</v>
       </c>
       <c r="W240" t="n">
-        <v>0.03654128685593605</v>
+        <v>0.2277963906526566</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4033911228179932</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.5169416666030884</v>
       </c>
       <c r="W241" t="n">
-        <v>0.004331492818892002</v>
+        <v>0.01289372611790895</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9586129188537598</v>
       </c>
       <c r="V242" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.5302108526229858</v>
       </c>
       <c r="W242" t="n">
-        <v>0.0002884233836084604</v>
+        <v>0.183528333902359</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9021270275115967</v>
       </c>
       <c r="V243" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.8757802248001099</v>
       </c>
       <c r="W243" t="n">
-        <v>0.2740078568458557</v>
+        <v>0.0006941540050320327</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8979690074920654</v>
       </c>
       <c r="V244" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.5253521203994751</v>
       </c>
       <c r="W244" t="n">
-        <v>0.05939600616693497</v>
+        <v>0.1388433426618576</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8967618942260742</v>
       </c>
       <c r="V245" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.3992335498332977</v>
       </c>
       <c r="W245" t="n">
-        <v>0.1382867097854614</v>
+        <v>0.247534453868866</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9445419311523438</v>
       </c>
       <c r="V246" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.8637587428092957</v>
       </c>
       <c r="W246" t="n">
-        <v>0.08493196219205856</v>
+        <v>0.006525923497974873</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8941390514373779</v>
       </c>
       <c r="V247" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.3992340266704559</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1875016689300537</v>
+        <v>0.2449309825897217</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8910861015319824</v>
       </c>
       <c r="V248" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.8898853063583374</v>
       </c>
       <c r="W248" t="n">
-        <v>0.09529044479131699</v>
+        <v>1.441909034838318e-06</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.9741928577423096</v>
       </c>
       <c r="V249" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.5168884992599487</v>
       </c>
       <c r="W249" t="n">
-        <v>0.2016821503639221</v>
+        <v>0.209127277135849</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8945090770721436</v>
       </c>
       <c r="V250" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.3990831673145294</v>
       </c>
       <c r="W250" t="n">
-        <v>0.05896726623177528</v>
+        <v>0.2454468309879303</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.9051511287689209</v>
       </c>
       <c r="V251" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.8876405954360962</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1446613073348999</v>
+        <v>0.0003066187782678753</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8906478881835938</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.8677440285682678</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1483794301748276</v>
+        <v>0.0005245867650955915</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.905116081237793</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.3992496430873871</v>
       </c>
       <c r="W253" t="n">
-        <v>0.108185313642025</v>
+        <v>0.2559008300304413</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8896300792694092</v>
       </c>
       <c r="V254" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.5083220601081848</v>
       </c>
       <c r="W254" t="n">
-        <v>0.181599348783493</v>
+        <v>0.1453958004713058</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8911221027374268</v>
       </c>
       <c r="V255" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.532243549823761</v>
       </c>
       <c r="W255" t="n">
-        <v>0.2705119550228119</v>
+        <v>0.1287938207387924</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8896300792694092</v>
       </c>
       <c r="V256" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.3997982740402222</v>
       </c>
       <c r="W256" t="n">
-        <v>0.007320915348827839</v>
+        <v>0.2399352043867111</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.9598829746246338</v>
       </c>
       <c r="V257" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.8812620043754578</v>
       </c>
       <c r="W257" t="n">
-        <v>0.02430468052625656</v>
+        <v>0.006181256845593452</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8842358589172363</v>
       </c>
       <c r="V258" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.8681512475013733</v>
       </c>
       <c r="W258" t="n">
-        <v>0.03097346052527428</v>
+        <v>0.0002587147173471749</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8970301151275635</v>
       </c>
       <c r="V259" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.8882189393043518</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1270400881767273</v>
+        <v>7.763681787764654e-05</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8835229873657227</v>
       </c>
       <c r="V260" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.5308899283409119</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1275857239961624</v>
+        <v>0.1243500709533691</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.9493281841278076</v>
       </c>
       <c r="V261" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.5284588932991028</v>
       </c>
       <c r="W261" t="n">
-        <v>0.3583067357540131</v>
+        <v>0.1771309673786163</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5532999038696289</v>
       </c>
       <c r="V262" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.4000389277935028</v>
       </c>
       <c r="W262" t="n">
-        <v>0.0008259081514552236</v>
+        <v>0.02348892763257027</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5493950843811035</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.400622546672821</v>
       </c>
       <c r="W263" t="n">
-        <v>0.003478090511634946</v>
+        <v>0.02213326841592789</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5352129936218262</v>
       </c>
       <c r="V264" t="n">
-        <v>0.699232816696167</v>
+        <v>0.5361423492431641</v>
       </c>
       <c r="W264" t="n">
-        <v>0.02690250240266323</v>
+        <v>8.637018709123367e-07</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5383920669555664</v>
       </c>
       <c r="V265" t="n">
-        <v>0.417653352022171</v>
+        <v>0.4009089469909668</v>
       </c>
       <c r="W265" t="n">
-        <v>0.0145778376609087</v>
+        <v>0.01890160888433456</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5986061096191406</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.5331079959869385</v>
       </c>
       <c r="W266" t="n">
-        <v>0.008743345737457275</v>
+        <v>0.00429000286385417</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5483062267303467</v>
       </c>
       <c r="V267" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.3990796208381653</v>
       </c>
       <c r="W267" t="n">
-        <v>0.01078512147068977</v>
+        <v>0.02226858027279377</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5410749912261963</v>
       </c>
       <c r="V268" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.399052768945694</v>
       </c>
       <c r="W268" t="n">
-        <v>0.001241878257133067</v>
+        <v>0.02017031237483025</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5398709774017334</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.5302985310554504</v>
       </c>
       <c r="W269" t="n">
-        <v>0.005784171167761087</v>
+        <v>9.163172944681719e-05</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5443179607391357</v>
       </c>
       <c r="V270" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.5238498449325562</v>
       </c>
       <c r="W270" t="n">
-        <v>0.01607135497033596</v>
+        <v>0.0004189437604509294</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5771389007568359</v>
       </c>
       <c r="V271" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.510559618473053</v>
       </c>
       <c r="W271" t="n">
-        <v>0.05066009983420372</v>
+        <v>0.004432800691574812</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.6685018539428711</v>
       </c>
       <c r="V272" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.868070662021637</v>
       </c>
       <c r="W272" t="n">
-        <v>0.02690999209880829</v>
+        <v>0.03982770815491676</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5557429790496826</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.8896341323852539</v>
       </c>
       <c r="W273" t="n">
-        <v>0.0007226447341963649</v>
+        <v>0.1114833056926727</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5827388763427734</v>
       </c>
       <c r="V274" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.3990535736083984</v>
       </c>
       <c r="W274" t="n">
-        <v>6.61911690258421e-05</v>
+        <v>0.03374028950929642</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5357298851013184</v>
       </c>
       <c r="V275" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.4003479480743408</v>
       </c>
       <c r="W275" t="n">
-        <v>0.03420622646808624</v>
+        <v>0.01832826808094978</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5934269428253174</v>
       </c>
       <c r="V276" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.4003219306468964</v>
       </c>
       <c r="W276" t="n">
-        <v>0.004767172038555145</v>
+        <v>0.03728954493999481</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5378849506378174</v>
       </c>
       <c r="V277" t="n">
-        <v>0.417663037776947</v>
+        <v>0.5170110464096069</v>
       </c>
       <c r="W277" t="n">
-        <v>0.01445330865681171</v>
+        <v>0.0004357198777142912</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5386619567871094</v>
       </c>
       <c r="V278" t="n">
-        <v>0.371780127286911</v>
+        <v>0.4006180465221405</v>
       </c>
       <c r="W278" t="n">
-        <v>0.02784954570233822</v>
+        <v>0.01905612088739872</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.563715934753418</v>
       </c>
       <c r="V279" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.8625655174255371</v>
       </c>
       <c r="W279" t="n">
-        <v>0.05731405690312386</v>
+        <v>0.08931107074022293</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5350220203399658</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.5281892418861389</v>
       </c>
       <c r="W280" t="n">
-        <v>9.704883268568665e-05</v>
+        <v>4.668686233344488e-05</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5406160354614258</v>
       </c>
       <c r="V281" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.5231000185012817</v>
       </c>
       <c r="W281" t="n">
-        <v>0.002473666099831462</v>
+        <v>0.0003068108635488898</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4551918506622314</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.3992508947849274</v>
       </c>
       <c r="W282" t="n">
-        <v>0.03926100581884384</v>
+        <v>0.00312939053401351</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.5286839008331299</v>
       </c>
       <c r="V283" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.4006448090076447</v>
       </c>
       <c r="W283" t="n">
-        <v>0.0006562430644407868</v>
+        <v>0.01639400981366634</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4146311283111572</v>
       </c>
       <c r="V284" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.5238339900970459</v>
       </c>
       <c r="W284" t="n">
-        <v>0.03243301436305046</v>
+        <v>0.01192526519298553</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4117069244384766</v>
       </c>
       <c r="V285" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.8715779185295105</v>
       </c>
       <c r="W285" t="n">
-        <v>3.544121136656031e-05</v>
+        <v>0.2114813327789307</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.418874979019165</v>
       </c>
       <c r="V286" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.3999557197093964</v>
       </c>
       <c r="W286" t="n">
-        <v>0.3099198639392853</v>
+        <v>0.0003579383774194866</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4625599384307861</v>
       </c>
       <c r="V287" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.5319582223892212</v>
       </c>
       <c r="W287" t="n">
-        <v>0.001819580444134772</v>
+        <v>0.004816121887415648</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4124529361724854</v>
       </c>
       <c r="V288" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.5314481854438782</v>
       </c>
       <c r="W288" t="n">
-        <v>0.1505232900381088</v>
+        <v>0.01415986940264702</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4440610408782959</v>
       </c>
       <c r="V289" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.4006404280662537</v>
       </c>
       <c r="W289" t="n">
-        <v>0.128314808011055</v>
+        <v>0.001885349629446864</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.4064319133758545</v>
       </c>
       <c r="V290" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.8861581087112427</v>
       </c>
       <c r="W290" t="n">
-        <v>0.06093045696616173</v>
+        <v>0.2301372289657593</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4111340045928955</v>
       </c>
       <c r="V291" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.3990757465362549</v>
       </c>
       <c r="W291" t="n">
-        <v>0.008968334645032883</v>
+        <v>0.0001454015873605385</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4108929634094238</v>
       </c>
       <c r="V292" t="n">
-        <v>0.576347291469574</v>
+        <v>0.4016157984733582</v>
       </c>
       <c r="W292" t="n">
-        <v>0.02737513557076454</v>
+        <v>8.606578921899199e-05</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4676790237426758</v>
       </c>
       <c r="V293" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.4003765881061554</v>
       </c>
       <c r="W293" t="n">
-        <v>0.05063085630536079</v>
+        <v>0.004529617726802826</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4270689487457275</v>
       </c>
       <c r="V294" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.8807877898216248</v>
       </c>
       <c r="W294" t="n">
-        <v>0.3013884723186493</v>
+        <v>0.2058607935905457</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.4076859951019287</v>
       </c>
       <c r="V295" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.4016349017620087</v>
       </c>
       <c r="W295" t="n">
-        <v>0.0813123881816864</v>
+        <v>3.661572918645106e-05</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4094829559326172</v>
       </c>
       <c r="V296" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.4019168615341187</v>
       </c>
       <c r="W296" t="n">
-        <v>0.002700156532227993</v>
+        <v>5.724578295485117e-05</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.426353931427002</v>
       </c>
       <c r="V297" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.5206653475761414</v>
       </c>
       <c r="W297" t="n">
-        <v>0.009725257754325867</v>
+        <v>0.008894642814993858</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4103739261627197</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.8736515641212463</v>
       </c>
       <c r="W298" t="n">
-        <v>0.006312114652246237</v>
+        <v>0.2146261632442474</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4647040367126465</v>
       </c>
       <c r="V299" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.8655021786689758</v>
       </c>
       <c r="W299" t="n">
-        <v>0.05491820350289345</v>
+        <v>0.160639151930809</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4139828681945801</v>
       </c>
       <c r="V300" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.3990459442138672</v>
       </c>
       <c r="W300" t="n">
-        <v>0.08387123793363571</v>
+        <v>0.0002231116959592327</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4141430854797363</v>
       </c>
       <c r="V301" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.5165097713470459</v>
       </c>
       <c r="W301" t="n">
-        <v>0.1726718842983246</v>
+        <v>0.01047893799841404</v>
       </c>
     </row>
     <row r="302" spans="1:23">
